--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Spon2-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Spon2-Itga4.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.472803</v>
+        <v>1.3019075</v>
       </c>
       <c r="H2">
-        <v>0.9456059999999999</v>
+        <v>2.603815</v>
       </c>
       <c r="I2">
-        <v>0.1289198617355981</v>
+        <v>0.3683937142813216</v>
       </c>
       <c r="J2">
-        <v>0.09646945066729889</v>
+        <v>0.2921984648839798</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N2">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O2">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P2">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q2">
-        <v>0.150002898189</v>
+        <v>1.0751008925175</v>
       </c>
       <c r="R2">
-        <v>0.600011592756</v>
+        <v>4.300403570069999</v>
       </c>
       <c r="S2">
-        <v>0.0003336112131519489</v>
+        <v>0.002158313945672207</v>
       </c>
       <c r="T2">
-        <v>0.0001671995557316546</v>
+        <v>0.001150823174855025</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.472803</v>
+        <v>1.3019075</v>
       </c>
       <c r="H3">
-        <v>0.9456059999999999</v>
+        <v>2.603815</v>
       </c>
       <c r="I3">
-        <v>0.1289198617355981</v>
+        <v>0.3683937142813216</v>
       </c>
       <c r="J3">
-        <v>0.09646945066729889</v>
+        <v>0.2921984648839798</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O3">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P3">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q3">
-        <v>0.013440055679</v>
+        <v>0.03700845656416667</v>
       </c>
       <c r="R3">
-        <v>0.08064033407399999</v>
+        <v>0.222050739385</v>
       </c>
       <c r="S3">
-        <v>2.989111099874557E-05</v>
+        <v>7.429615998476617E-05</v>
       </c>
       <c r="T3">
-        <v>2.247127921194682E-05</v>
+        <v>5.942259434823039E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.472803</v>
+        <v>1.3019075</v>
       </c>
       <c r="H4">
-        <v>0.9456059999999999</v>
+        <v>2.603815</v>
       </c>
       <c r="I4">
-        <v>0.1289198617355981</v>
+        <v>0.3683937142813216</v>
       </c>
       <c r="J4">
-        <v>0.09646945066729889</v>
+        <v>0.2921984648839798</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N4">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O4">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P4">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q4">
-        <v>23.352285627061</v>
+        <v>75.85015858898666</v>
       </c>
       <c r="R4">
-        <v>140.113713762366</v>
+        <v>455.10095153392</v>
       </c>
       <c r="S4">
-        <v>0.05193622544611567</v>
+        <v>0.1522726436220438</v>
       </c>
       <c r="T4">
-        <v>0.03904416343919972</v>
+        <v>0.121788737589408</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.472803</v>
+        <v>1.3019075</v>
       </c>
       <c r="H5">
-        <v>0.9456059999999999</v>
+        <v>2.603815</v>
       </c>
       <c r="I5">
-        <v>0.1289198617355981</v>
+        <v>0.3683937142813216</v>
       </c>
       <c r="J5">
-        <v>0.09646945066729889</v>
+        <v>0.2921984648839798</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N5">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O5">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P5">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q5">
-        <v>0.6552791902364999</v>
+        <v>3.49395584685375</v>
       </c>
       <c r="R5">
-        <v>2.621116760946</v>
+        <v>13.975823387415</v>
       </c>
       <c r="S5">
-        <v>0.001457361745988295</v>
+        <v>0.007014275294822759</v>
       </c>
       <c r="T5">
-        <v>0.0007304018176348514</v>
+        <v>0.003740044667867354</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.472803</v>
+        <v>1.3019075</v>
       </c>
       <c r="H6">
-        <v>0.9456059999999999</v>
+        <v>2.603815</v>
       </c>
       <c r="I6">
-        <v>0.1289198617355981</v>
+        <v>0.3683937142813216</v>
       </c>
       <c r="J6">
-        <v>0.09646945066729889</v>
+        <v>0.2921984648839798</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N6">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O6">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P6">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q6">
-        <v>0.290196394936</v>
+        <v>73.95157299472334</v>
       </c>
       <c r="R6">
-        <v>1.741178369616</v>
+        <v>443.70943796834</v>
       </c>
       <c r="S6">
-        <v>0.0006454060057222315</v>
+        <v>0.1484611466791332</v>
       </c>
       <c r="T6">
-        <v>0.0004851977084511933</v>
+        <v>0.118740275370842</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.472803</v>
+        <v>1.3019075</v>
       </c>
       <c r="H7">
-        <v>0.9456059999999999</v>
+        <v>2.603815</v>
       </c>
       <c r="I7">
-        <v>0.1289198617355981</v>
+        <v>0.3683937142813216</v>
       </c>
       <c r="J7">
-        <v>0.09646945066729889</v>
+        <v>0.2921984648839798</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N7">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O7">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P7">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q7">
-        <v>33.505531159599</v>
+        <v>29.096744724085</v>
       </c>
       <c r="R7">
-        <v>201.033186957594</v>
+        <v>174.58046834451</v>
       </c>
       <c r="S7">
-        <v>0.07451736621362119</v>
+        <v>0.05841303857966489</v>
       </c>
       <c r="T7">
-        <v>0.05602001686706953</v>
+        <v>0.04671916148665921</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>4.739138</v>
       </c>
       <c r="I8">
-        <v>0.4307424838011595</v>
+        <v>0.4470027377295119</v>
       </c>
       <c r="J8">
-        <v>0.483480476537291</v>
+        <v>0.5318230551991343</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N8">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O8">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P8">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q8">
-        <v>0.5011843797646667</v>
+        <v>1.304509343294</v>
       </c>
       <c r="R8">
-        <v>3.007106278588</v>
+        <v>7.827056059763998</v>
       </c>
       <c r="S8">
-        <v>0.001114649989865054</v>
+        <v>0.002618861845885132</v>
       </c>
       <c r="T8">
-        <v>0.0008379618658838903</v>
+        <v>0.002094584230921203</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>4.739138</v>
       </c>
       <c r="I9">
-        <v>0.4307424838011595</v>
+        <v>0.4470027377295119</v>
       </c>
       <c r="J9">
-        <v>0.483480476537291</v>
+        <v>0.5318230551991343</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O9">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P9">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q9">
         <v>0.04490543883355555</v>
@@ -1013,10 +1013,10 @@
         <v>0.4041489495019999</v>
       </c>
       <c r="S9">
-        <v>9.987112320661605E-05</v>
+        <v>9.014971110668632E-05</v>
       </c>
       <c r="T9">
-        <v>0.0001126203653762214</v>
+        <v>0.0001081535650321869</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>4.739138</v>
       </c>
       <c r="I10">
-        <v>0.4307424838011595</v>
+        <v>0.4470027377295119</v>
       </c>
       <c r="J10">
-        <v>0.483480476537291</v>
+        <v>0.5318230551991343</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N10">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O10">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P10">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q10">
-        <v>78.0238310685131</v>
+        <v>92.03530687986488</v>
       </c>
       <c r="R10">
-        <v>702.214479616618</v>
+        <v>828.3177619187838</v>
       </c>
       <c r="S10">
-        <v>0.1735274801473015</v>
+        <v>0.1847650650423028</v>
       </c>
       <c r="T10">
-        <v>0.1956794675931859</v>
+        <v>0.2216646091531048</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>4.739138</v>
       </c>
       <c r="I11">
-        <v>0.4307424838011595</v>
+        <v>0.4470027377295119</v>
       </c>
       <c r="J11">
-        <v>0.483480476537291</v>
+        <v>0.5318230551991343</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N11">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O11">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P11">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q11">
-        <v>2.189395661659666</v>
+        <v>4.239507267643</v>
       </c>
       <c r="R11">
-        <v>13.136373969958</v>
+        <v>25.437043605858</v>
       </c>
       <c r="S11">
-        <v>0.004869285537640747</v>
+        <v>0.008511003685529562</v>
       </c>
       <c r="T11">
-        <v>0.003660589092309476</v>
+        <v>0.006807160956975651</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>4.739138</v>
       </c>
       <c r="I12">
-        <v>0.4307424838011595</v>
+        <v>0.4470027377295119</v>
       </c>
       <c r="J12">
-        <v>0.483480476537291</v>
+        <v>0.5318230551991343</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N12">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O12">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P12">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q12">
-        <v>0.9695939342631111</v>
+        <v>89.73159504779643</v>
       </c>
       <c r="R12">
-        <v>8.726345408367999</v>
+        <v>807.5843554301679</v>
       </c>
       <c r="S12">
-        <v>0.002156407726647564</v>
+        <v>0.1801402587487088</v>
       </c>
       <c r="T12">
-        <v>0.00243168814245465</v>
+        <v>0.2161161799668644</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>4.739138</v>
       </c>
       <c r="I13">
-        <v>0.4307424838011595</v>
+        <v>0.4470027377295119</v>
       </c>
       <c r="J13">
-        <v>0.483480476537291</v>
+        <v>0.5318230551991343</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N13">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O13">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P13">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q13">
-        <v>111.947496052718</v>
+        <v>35.30550073596132</v>
       </c>
       <c r="R13">
-        <v>1007.527464474462</v>
+        <v>317.7495066236519</v>
       </c>
       <c r="S13">
-        <v>0.248974789276498</v>
+        <v>0.070877398695979</v>
       </c>
       <c r="T13">
-        <v>0.2807581494780809</v>
+        <v>0.08503236732623597</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1572373333333333</v>
+        <v>0.06722566666666667</v>
       </c>
       <c r="H14">
-        <v>0.471712</v>
+        <v>0.201677</v>
       </c>
       <c r="I14">
-        <v>0.04287412574160376</v>
+        <v>0.01902248280954781</v>
       </c>
       <c r="J14">
-        <v>0.04812342298290504</v>
+        <v>0.02263206479815439</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N14">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O14">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P14">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q14">
-        <v>0.04988558808533334</v>
+        <v>0.05551421605099999</v>
       </c>
       <c r="R14">
-        <v>0.299313528512</v>
+        <v>0.3330852963059999</v>
       </c>
       <c r="S14">
-        <v>0.0001109471334278986</v>
+        <v>0.000111447313940336</v>
       </c>
       <c r="T14">
-        <v>8.340687012697704E-05</v>
+        <v>8.913635009984841E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1572373333333333</v>
+        <v>0.06722566666666667</v>
       </c>
       <c r="H15">
-        <v>0.471712</v>
+        <v>0.201677</v>
       </c>
       <c r="I15">
-        <v>0.04287412574160376</v>
+        <v>0.01902248280954781</v>
       </c>
       <c r="J15">
-        <v>0.04812342298290504</v>
+        <v>0.02263206479815439</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O15">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P15">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q15">
-        <v>0.004469680849777778</v>
+        <v>0.001910979209222222</v>
       </c>
       <c r="R15">
-        <v>0.040227127648</v>
+        <v>0.017198812883</v>
       </c>
       <c r="S15">
-        <v>9.940712270889618E-06</v>
+        <v>3.836377688698489E-06</v>
       </c>
       <c r="T15">
-        <v>1.120971319939368E-05</v>
+        <v>4.602543022591105E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1572373333333333</v>
+        <v>0.06722566666666667</v>
       </c>
       <c r="H16">
-        <v>0.471712</v>
+        <v>0.201677</v>
       </c>
       <c r="I16">
-        <v>0.04287412574160376</v>
+        <v>0.01902248280954781</v>
       </c>
       <c r="J16">
-        <v>0.04812342298290504</v>
+        <v>0.02263206479815439</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N16">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O16">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P16">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q16">
-        <v>7.766133292803556</v>
+        <v>3.916620403459556</v>
       </c>
       <c r="R16">
-        <v>69.895199635232</v>
+        <v>35.249583631136</v>
       </c>
       <c r="S16">
-        <v>0.01727212727615104</v>
+        <v>0.007862793618277523</v>
       </c>
       <c r="T16">
-        <v>0.01947703422380122</v>
+        <v>0.009433076939344398</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1572373333333333</v>
+        <v>0.06722566666666667</v>
       </c>
       <c r="H17">
-        <v>0.471712</v>
+        <v>0.201677</v>
       </c>
       <c r="I17">
-        <v>0.04287412574160376</v>
+        <v>0.01902248280954781</v>
       </c>
       <c r="J17">
-        <v>0.04812342298290504</v>
+        <v>0.02263206479815439</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N17">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O17">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P17">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q17">
-        <v>0.2179223745653333</v>
+        <v>0.1804148997595</v>
       </c>
       <c r="R17">
-        <v>1.307534247392</v>
+        <v>1.082489398557</v>
       </c>
       <c r="S17">
-        <v>0.0004846662873146114</v>
+        <v>0.0003621911179388627</v>
       </c>
       <c r="T17">
-        <v>0.0003643582022535507</v>
+        <v>0.0002896830183716909</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.1572373333333333</v>
+        <v>0.06722566666666667</v>
       </c>
       <c r="H18">
-        <v>0.471712</v>
+        <v>0.201677</v>
       </c>
       <c r="I18">
-        <v>0.04287412574160376</v>
+        <v>0.01902248280954781</v>
       </c>
       <c r="J18">
-        <v>0.04812342298290504</v>
+        <v>0.02263206479815439</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N18">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O18">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P18">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q18">
-        <v>0.09650892080355557</v>
+        <v>3.818584496685778</v>
       </c>
       <c r="R18">
-        <v>0.8685802872320001</v>
+        <v>34.367260470172</v>
       </c>
       <c r="S18">
-        <v>0.0002146389072342641</v>
+        <v>0.007665982075994275</v>
       </c>
       <c r="T18">
-        <v>0.0002420390537379515</v>
+        <v>0.009196960043614963</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.1572373333333333</v>
+        <v>0.06722566666666667</v>
       </c>
       <c r="H19">
-        <v>0.471712</v>
+        <v>0.201677</v>
       </c>
       <c r="I19">
-        <v>0.04287412574160376</v>
+        <v>0.01902248280954781</v>
       </c>
       <c r="J19">
-        <v>0.04812342298290504</v>
+        <v>0.02263206479815439</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N19">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O19">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P19">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q19">
-        <v>11.142738881632</v>
+        <v>1.502447802095333</v>
       </c>
       <c r="R19">
-        <v>100.284649934688</v>
+        <v>13.522030218858</v>
       </c>
       <c r="S19">
-        <v>0.02478180542520506</v>
+        <v>0.003016232305708118</v>
       </c>
       <c r="T19">
-        <v>0.02794537491978594</v>
+        <v>0.003618605903700904</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.7273215000000001</v>
+        <v>0.389008</v>
       </c>
       <c r="H20">
-        <v>1.454643</v>
+        <v>0.778016</v>
       </c>
       <c r="I20">
-        <v>0.1983197805794968</v>
+        <v>0.1100754869337095</v>
       </c>
       <c r="J20">
-        <v>0.1484007198844251</v>
+        <v>0.08730846118298513</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N20">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O20">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P20">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q20">
-        <v>0.2307522010545</v>
+        <v>0.321238527312</v>
       </c>
       <c r="R20">
-        <v>0.9230088042180001</v>
+        <v>1.284954109248</v>
       </c>
       <c r="S20">
-        <v>0.0005132002292001007</v>
+        <v>0.0006449009560034443</v>
       </c>
       <c r="T20">
-        <v>0.0002572061337895077</v>
+        <v>0.0003438642312176583</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.7273215000000001</v>
+        <v>0.389008</v>
       </c>
       <c r="H21">
-        <v>1.454643</v>
+        <v>0.778016</v>
       </c>
       <c r="I21">
-        <v>0.1983197805794968</v>
+        <v>0.1100754869337095</v>
       </c>
       <c r="J21">
-        <v>0.1484007198844251</v>
+        <v>0.08730846118298513</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O21">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P21">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q21">
-        <v>0.0206750833995</v>
+        <v>0.01105807107733333</v>
       </c>
       <c r="R21">
-        <v>0.124050500397</v>
+        <v>0.06634842646399999</v>
       </c>
       <c r="S21">
-        <v>4.598204260183232E-05</v>
+        <v>2.219958069475283E-05</v>
       </c>
       <c r="T21">
-        <v>3.456797969418972E-05</v>
+        <v>1.775538168588507E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.7273215000000001</v>
+        <v>0.389008</v>
       </c>
       <c r="H22">
-        <v>1.454643</v>
+        <v>0.778016</v>
       </c>
       <c r="I22">
-        <v>0.1983197805794968</v>
+        <v>0.1100754869337095</v>
       </c>
       <c r="J22">
-        <v>0.1484007198844251</v>
+        <v>0.08730846118298513</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N22">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O22">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P22">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q22">
-        <v>35.9232479715705</v>
+        <v>22.66391313698133</v>
       </c>
       <c r="R22">
-        <v>215.539487829423</v>
+        <v>135.983478821888</v>
       </c>
       <c r="S22">
-        <v>0.07989444524634366</v>
+        <v>0.04549883655338342</v>
       </c>
       <c r="T22">
-        <v>0.06006235053255564</v>
+        <v>0.0363902913472581</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.7273215000000001</v>
+        <v>0.389008</v>
       </c>
       <c r="H23">
-        <v>1.454643</v>
+        <v>0.778016</v>
       </c>
       <c r="I23">
-        <v>0.1983197805794968</v>
+        <v>0.1100754869337095</v>
       </c>
       <c r="J23">
-        <v>0.1484007198844251</v>
+        <v>0.08730846118298513</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N23">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O23">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P23">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q23">
-        <v>1.00802795997825</v>
+        <v>1.043988744264</v>
       </c>
       <c r="R23">
-        <v>4.032111839913001</v>
+        <v>4.175954977056</v>
       </c>
       <c r="S23">
-        <v>0.00224188622139628</v>
+        <v>0.002095854892831028</v>
       </c>
       <c r="T23">
-        <v>0.001123590471306034</v>
+        <v>0.001117519713311233</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.7273215000000001</v>
+        <v>0.389008</v>
       </c>
       <c r="H24">
-        <v>1.454643</v>
+        <v>0.778016</v>
       </c>
       <c r="I24">
-        <v>0.1983197805794968</v>
+        <v>0.1100754869337095</v>
       </c>
       <c r="J24">
-        <v>0.1484007198844251</v>
+        <v>0.08730846118298513</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N24">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O24">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P24">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q24">
-        <v>0.4464144205080001</v>
+        <v>22.09661862116267</v>
       </c>
       <c r="R24">
-        <v>2.678486523048</v>
+        <v>132.579711726976</v>
       </c>
       <c r="S24">
-        <v>0.00099283985971092</v>
+        <v>0.04435996700791436</v>
       </c>
       <c r="T24">
-        <v>0.0007463885066450184</v>
+        <v>0.03547941542810107</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.7273215000000001</v>
+        <v>0.389008</v>
       </c>
       <c r="H25">
-        <v>1.454643</v>
+        <v>0.778016</v>
       </c>
       <c r="I25">
-        <v>0.1983197805794968</v>
+        <v>0.1100754869337095</v>
       </c>
       <c r="J25">
-        <v>0.1484007198844251</v>
+        <v>0.08730846118298513</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N25">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O25">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P25">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q25">
-        <v>51.54217122415951</v>
+        <v>8.694063496543999</v>
       </c>
       <c r="R25">
-        <v>309.253027344957</v>
+        <v>52.164380979264</v>
       </c>
       <c r="S25">
-        <v>0.114631426980244</v>
+        <v>0.01745372794288249</v>
       </c>
       <c r="T25">
-        <v>0.08617661626043471</v>
+        <v>0.01395961508141118</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.4836246666666666</v>
+        <v>0.1428456666666667</v>
       </c>
       <c r="H26">
-        <v>1.450874</v>
+        <v>0.428537</v>
       </c>
       <c r="I26">
-        <v>0.1318706208687157</v>
+        <v>0.04042026465960516</v>
       </c>
       <c r="J26">
-        <v>0.1480162115801577</v>
+        <v>0.04809014985549512</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N26">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O26">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P26">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q26">
-        <v>0.1534362126206667</v>
+        <v>0.117960380231</v>
       </c>
       <c r="R26">
-        <v>0.9206172757240001</v>
+        <v>0.7077622813859999</v>
       </c>
       <c r="S26">
-        <v>0.0003412470135698665</v>
+        <v>0.0002368108290685093</v>
       </c>
       <c r="T26">
-        <v>0.0002565397091628105</v>
+        <v>0.0001894029763569408</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.4836246666666666</v>
+        <v>0.1428456666666667</v>
       </c>
       <c r="H27">
-        <v>1.450874</v>
+        <v>0.428537</v>
       </c>
       <c r="I27">
-        <v>0.1318706208687157</v>
+        <v>0.04042026465960516</v>
       </c>
       <c r="J27">
-        <v>0.1480162115801577</v>
+        <v>0.04809014985549512</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O27">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P27">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q27">
-        <v>0.01374767598288889</v>
+        <v>0.004060578535888889</v>
       </c>
       <c r="R27">
-        <v>0.123729083846</v>
+        <v>0.036545206823</v>
       </c>
       <c r="S27">
-        <v>3.057526833176748E-05</v>
+        <v>8.151796117463986E-06</v>
       </c>
       <c r="T27">
-        <v>3.447841358383315E-05</v>
+        <v>9.77979630434866E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.4836246666666666</v>
+        <v>0.1428456666666667</v>
       </c>
       <c r="H28">
-        <v>1.450874</v>
+        <v>0.428537</v>
       </c>
       <c r="I28">
-        <v>0.1318706208687157</v>
+        <v>0.04042026465960516</v>
       </c>
       <c r="J28">
-        <v>0.1480162115801577</v>
+        <v>0.04809014985549512</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N28">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O28">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P28">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q28">
-        <v>23.88678022832378</v>
+        <v>8.322301292846221</v>
       </c>
       <c r="R28">
-        <v>214.981022054914</v>
+        <v>74.90071163561599</v>
       </c>
       <c r="S28">
-        <v>0.05312495842729962</v>
+        <v>0.01670739840832516</v>
       </c>
       <c r="T28">
-        <v>0.05990672815706062</v>
+        <v>0.02004404315988353</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.4836246666666666</v>
+        <v>0.1428456666666667</v>
       </c>
       <c r="H29">
-        <v>1.450874</v>
+        <v>0.428537</v>
       </c>
       <c r="I29">
-        <v>0.1318706208687157</v>
+        <v>0.04042026465960516</v>
       </c>
       <c r="J29">
-        <v>0.1480162115801577</v>
+        <v>0.04809014985549512</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N29">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O29">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P29">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q29">
-        <v>0.6702774304556667</v>
+        <v>0.3833578439695001</v>
       </c>
       <c r="R29">
-        <v>4.021664582734</v>
+        <v>2.300147063817</v>
       </c>
       <c r="S29">
-        <v>0.00149071830892854</v>
+        <v>0.0007696083098626338</v>
       </c>
       <c r="T29">
-        <v>0.001120679232956588</v>
+        <v>0.0006155381706587727</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.4836246666666666</v>
+        <v>0.1428456666666667</v>
       </c>
       <c r="H30">
-        <v>1.450874</v>
+        <v>0.428537</v>
       </c>
       <c r="I30">
-        <v>0.1318706208687157</v>
+        <v>0.04042026465960516</v>
       </c>
       <c r="J30">
-        <v>0.1480162115801577</v>
+        <v>0.04809014985549512</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N30">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O30">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P30">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q30">
-        <v>0.2968385030737778</v>
+        <v>8.113987933459111</v>
       </c>
       <c r="R30">
-        <v>2.671546527664</v>
+        <v>73.025891401132</v>
       </c>
       <c r="S30">
-        <v>0.0006601782653284327</v>
+        <v>0.01628919986364513</v>
       </c>
       <c r="T30">
-        <v>0.0007444546037688178</v>
+        <v>0.01954232592814563</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.4836246666666666</v>
+        <v>0.1428456666666667</v>
       </c>
       <c r="H31">
-        <v>1.450874</v>
+        <v>0.428537</v>
       </c>
       <c r="I31">
-        <v>0.1318706208687157</v>
+        <v>0.04042026465960516</v>
       </c>
       <c r="J31">
-        <v>0.1480162115801577</v>
+        <v>0.04809014985549512</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N31">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O31">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P31">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q31">
-        <v>34.272416500214</v>
+        <v>3.192503229255333</v>
       </c>
       <c r="R31">
-        <v>308.451748501926</v>
+        <v>28.732529063298</v>
       </c>
       <c r="S31">
-        <v>0.07622294358525744</v>
+        <v>0.006409095452586264</v>
       </c>
       <c r="T31">
-        <v>0.08595333146362506</v>
+        <v>0.007689059824145908</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.2467186666666667</v>
+        <v>0.05331166666666667</v>
       </c>
       <c r="H32">
-        <v>0.740156</v>
+        <v>0.159935</v>
       </c>
       <c r="I32">
-        <v>0.06727312727342631</v>
+        <v>0.01508531358630399</v>
       </c>
       <c r="J32">
-        <v>0.07550971834792217</v>
+        <v>0.01794780408025121</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N32">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O32">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P32">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q32">
-        <v>0.07827470434266667</v>
+        <v>0.04402418790499999</v>
       </c>
       <c r="R32">
-        <v>0.469648226056</v>
+        <v>0.26414512743</v>
       </c>
       <c r="S32">
-        <v>0.000174085430282587</v>
+        <v>8.838055978147052E-05</v>
       </c>
       <c r="T32">
-        <v>0.0001308724292909716</v>
+        <v>7.068739694273147E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.2467186666666667</v>
+        <v>0.05331166666666667</v>
       </c>
       <c r="H33">
-        <v>0.740156</v>
+        <v>0.159935</v>
       </c>
       <c r="I33">
-        <v>0.06727312727342631</v>
+        <v>0.01508531358630399</v>
       </c>
       <c r="J33">
-        <v>0.07550971834792217</v>
+        <v>0.01794780408025121</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2489,22 +2489,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O33">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P33">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q33">
-        <v>0.007013307058222222</v>
+        <v>0.001515455207222222</v>
       </c>
       <c r="R33">
-        <v>0.06311976352399999</v>
+        <v>0.013639096865</v>
       </c>
       <c r="S33">
-        <v>1.559781780317773E-05</v>
+        <v>3.042345263178215E-06</v>
       </c>
       <c r="T33">
-        <v>1.758898752376541E-05</v>
+        <v>3.649933895873642E-06</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.2467186666666667</v>
+        <v>0.05331166666666667</v>
       </c>
       <c r="H34">
-        <v>0.740156</v>
+        <v>0.159935</v>
       </c>
       <c r="I34">
-        <v>0.06727312727342631</v>
+        <v>0.01508531358630399</v>
       </c>
       <c r="J34">
-        <v>0.07550971834792217</v>
+        <v>0.01794780408025121</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N34">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O34">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P34">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q34">
-        <v>12.18571957776845</v>
+        <v>3.105979780675555</v>
       </c>
       <c r="R34">
-        <v>109.671476199916</v>
+        <v>27.95381802608</v>
       </c>
       <c r="S34">
-        <v>0.02710142764272871</v>
+        <v>0.006235395693803534</v>
       </c>
       <c r="T34">
-        <v>0.03056111301589067</v>
+        <v>0.007480670380331155</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.2467186666666667</v>
+        <v>0.05331166666666667</v>
       </c>
       <c r="H35">
-        <v>0.740156</v>
+        <v>0.159935</v>
       </c>
       <c r="I35">
-        <v>0.06727312727342631</v>
+        <v>0.01508531358630399</v>
       </c>
       <c r="J35">
-        <v>0.07550971834792217</v>
+        <v>0.01794780408025121</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N35">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O35">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P35">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q35">
-        <v>0.3419386258326667</v>
+        <v>0.1430736127225</v>
       </c>
       <c r="R35">
-        <v>2.051631754996</v>
+        <v>0.858441676335</v>
       </c>
       <c r="S35">
-        <v>0.0007604823717726779</v>
+        <v>0.0002872267856401672</v>
       </c>
       <c r="T35">
-        <v>0.0005717088171324432</v>
+        <v>0.0002297260150799367</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.2467186666666667</v>
+        <v>0.05331166666666667</v>
       </c>
       <c r="H36">
-        <v>0.740156</v>
+        <v>0.159935</v>
       </c>
       <c r="I36">
-        <v>0.06727312727342631</v>
+        <v>0.01508531358630399</v>
       </c>
       <c r="J36">
-        <v>0.07550971834792217</v>
+        <v>0.01794780408025121</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N36">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O36">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P36">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q36">
-        <v>0.1514306542684445</v>
+        <v>3.028234808517778</v>
       </c>
       <c r="R36">
-        <v>1.362875888416</v>
+        <v>27.25411327666</v>
       </c>
       <c r="S36">
-        <v>0.0003367865880513618</v>
+        <v>0.006079319125751297</v>
       </c>
       <c r="T36">
-        <v>0.0003797797339445831</v>
+        <v>0.007293423665443055</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.2467186666666667</v>
+        <v>0.05331166666666667</v>
       </c>
       <c r="H37">
-        <v>0.740156</v>
+        <v>0.159935</v>
       </c>
       <c r="I37">
-        <v>0.06727312727342631</v>
+        <v>0.01508531358630399</v>
       </c>
       <c r="J37">
-        <v>0.07550971834792217</v>
+        <v>0.01794780408025121</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N37">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O37">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P37">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q37">
-        <v>17.483899158116</v>
+        <v>1.191479391443333</v>
       </c>
       <c r="R37">
-        <v>157.355092423044</v>
+        <v>10.72331452299</v>
       </c>
       <c r="S37">
-        <v>0.03888474742278779</v>
+        <v>0.00239194907606434</v>
       </c>
       <c r="T37">
-        <v>0.04384865536413973</v>
+        <v>0.002869646688558458</v>
       </c>
     </row>
   </sheetData>
